--- a/Tests/Validation/Wheat/data/Lincoln1992.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln1992.xlsx
@@ -37,224 +37,224 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="72">
-  <si>
-    <t>SimulationName</t>
-  </si>
-  <si>
-    <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(1)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(2)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(3)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(4)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(5)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(6)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(7)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(8)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(9)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(10)</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemNumberPerPlant</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.N</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.N</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Size</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.N</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Number</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Tips</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.CoverTotal</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.CoverGreen</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.N</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.DeadCohortNo</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Ligules</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.N</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.SpecificAreaCanopy</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.TerminalSpikeletDAS</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.FlagLeafDAS</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.HeadingDAS</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.FloweringDAS</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.MaturityDAS</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Zadok.Stage</t>
-  </si>
-  <si>
-    <t>Wheat.Population</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.N</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.N</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemPopulation</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.HaunStage</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.FinalLeafNumber</t>
-  </si>
-  <si>
-    <t>HarvestRipe</t>
-  </si>
-  <si>
-    <t>(Wheat.Leaf.Transpiration + ISoilWater.Es + MicroClimate.PrecipitationInterception)</t>
-  </si>
-  <si>
-    <t>sum(Soil.Water.MM)</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.StorageWt</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Live.StorageWt</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Live.StorageWt</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Height</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.ExtinctionCoefficient</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI</t>
-  </si>
-  <si>
-    <t>Lincoln1992Sow5AugNit0</t>
-  </si>
-  <si>
-    <t>Lincoln1992Sow5AugNit1</t>
-  </si>
-  <si>
-    <t>Lincoln1992Sow5AugNit2</t>
-  </si>
-  <si>
-    <t>Lincoln1992Sow5AugNit3</t>
-  </si>
-  <si>
-    <t>Lincoln1992Sow5MayNit0</t>
-  </si>
-  <si>
-    <t>Lincoln1992Sow5MayNit1</t>
-  </si>
-  <si>
-    <t>Lincoln1992Sow5MayNit2</t>
-  </si>
-  <si>
-    <t>Lincoln1992Sow5MayNit3</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="72">
+  <x:si>
+    <x:t>SimulationName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock.Today</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemNumberPerPlant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.CoverTotal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.CoverGreen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.DeadCohortNo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Ligules</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.LAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.SpecificAreaCanopy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.CurrentStageName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.TerminalSpikeletDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.FlagLeafDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.HeadingDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.FloweringDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.MaturityDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Zadok.Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Population</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemPopulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.HaunStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.FinalLeafNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HarvestRipe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(Wheat.Leaf.Transpiration + ISoilWater.Es + MicroClimate.PrecipitationInterception)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sum(Soil.Water.MM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.StorageWt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Live.StorageWt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Live.StorageWt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Height</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.ExtinctionCoefficient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln1992Sow5AugNit0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln1992Sow5AugNit1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln1992Sow5AugNit2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln1992Sow5AugNit3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln1992Sow5MayNit0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln1992Sow5MayNit1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln1992Sow5MayNit2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln1992Sow5MayNit3</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
